--- a/docs/cdk.xlsx
+++ b/docs/cdk.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\github\lambda-sample\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473491A8-D80B-48DC-8F32-F6A2B096A34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4321D84A-8382-4D26-B01F-7D06A44A2837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="20640" windowHeight="13080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="20640" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CDKの実装方針" sheetId="3" r:id="rId1"/>
-    <sheet name="CloudFormationベストプラクティス" sheetId="1" r:id="rId2"/>
-    <sheet name="CloudFormation_Securitベストプラクティス" sheetId="2" r:id="rId3"/>
+    <sheet name="CDKベストプラクティス" sheetId="4" r:id="rId2"/>
+    <sheet name="CloudFormationベストプラクティス" sheetId="1" r:id="rId3"/>
+    <sheet name="CloudFormationセキュリティベストプラクティス" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="419">
   <si>
     <t>https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/best-practices.html</t>
     <phoneticPr fontId="1"/>
@@ -1011,12 +1012,1262 @@
     <t>・変更を確認し、リソースの正確な履歴を保持するには、コードレビューとリビジョン管理を使用する</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t xml:space="preserve">The AWS CDK reflects careful consideration of the needs of our customers and internal teams and of the failure patterns that often arise during the deployment and ongoing maintenance of complex cloud applications. We discovered that failures are often related to "out-of-band" changes to an application that aren’t fully tested, such as configuration changes. Therefore, we developed the AWS CDK around a model in which your entire application is defined in code, not only business logic but also infrastructure and configuration. That way, proposed changes can be carefully reviewed, comprehensively tested in environments resembling production to varying degrees, and fully rolled back if something goes wrong.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Organization best practices</t>
+  </si>
+  <si>
+    <t>Coding best practices</t>
+  </si>
+  <si>
+    <t>Construct best practices</t>
+  </si>
+  <si>
+    <t>Application best practices</t>
+  </si>
+  <si>
+    <t>組織のベストプラクティス</t>
+  </si>
+  <si>
+    <t>コーディングのベストプラクティス</t>
+  </si>
+  <si>
+    <t>構築のベストプラクティス</t>
+  </si>
+  <si>
+    <t>アプリケーションのベストプラクティス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the beginning stages of AWS CDK adoption, it’s important to consider how to set up your organization for success. It’s a best practice to have a team of experts responsible for training and guiding the rest of the company as they adopt the CDK. The size of this team might vary, from one or two people at a small company to a full-fledged Cloud Center of Excellence (CCoE) at a larger company. This team is responsible for setting standards and policies for cloud infrastructure at your company, and also for training and mentoring developers.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The CCoE might provide guidance on what programming languages should be used for cloud infrastructure. Details will vary from one organization to the next, but a good policy helps make sure that developers can understand and maintain the company’s cloud infrastructure.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The CCoE also creates a "landing zone" that defines your organizational units within AWS. A landing zone is a pre-configured, secure, scalable, multi-account AWS environment based on best practice blueprints. To tie together the services that make up your landing zone, you can use AWS Control Tower, which configures and manages your entire multi-account system from a single user interface.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Development teams should be able to use their own accounts for testing and deploy new resources in these accounts as needed. Individual developers can treat these resources as extensions of their own development workstation. Using CDK Pipelines, the AWS CDK applications can then be deployed via a CI/CD account to testing, integration, and production environments (each isolated in its own AWS Region or account). This is done by merging the developers' code into your organization’s canonical repository.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This section presents best practices for organizing your AWS CDK code. The following diagram shows the relationship between a team and that team’s code repositories, packages, applications, and construct libraries.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>The guiding principle for most of our best practices is to keep things simple as possible—</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>but no simpler. Add complexity only when your requirements dictate a more complicated solution. With the AWS CDK, you can refactor your code as necessary to support new requirements. You don’t have to architect for all possible scenarios upfront.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Start simple and add complexity only when you need it</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Align with the AWS Well-Architected Framework</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The AWS Well-Architected Framework defines a component as the code, configuration, and AWS resources that together deliver against a requirement. A component is often the unit of technical ownership, and is decoupled from other components. The term workload is used to identify a set of components that together deliver business value. A workload is usually the level of detail that business and technology leaders communicate about.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">An AWS CDK application maps to a component as defined by the AWS Well-Architected Framework. AWS CDK apps are a mechanism to codify and deliver Well-Architected cloud application best practices. You can also create and share components as reusable code libraries through artifact repositories, such as AWS CodeArtifact.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Every application starts with a single package in a single repository</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A single package is the entry point of your AWS CDK app. Here, you define how and where to deploy the different logical units of your application. You also define the CI/CD pipeline to deploy the application. The app’s constructs define the logical units of your solution.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Use additional packages for constructs that you use in more than one application. (Shared constructs should also have their own lifecycle and testing strategy.) Dependencies between packages in the same repository are managed by your repo’s build tooling.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Although it’s possible, we don’t recommend putting multiple applications in the same repository, especially when using automated deployment pipelines. Doing this increases the "blast radius" of changes during deployment. When there are multiple applications in a repository, changes to one application trigger deployment of the others (even if the others haven’t changed). Furthermore, a break in one application prevents the other applications from being deployed.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/cdk/v2/guide/best-practices.html</t>
+  </si>
+  <si>
+    <t>Move code into repositories based on code lifecycle or team ownership</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">When packages begin to be used in multiple applications, move them to their own repository. This way, the packages can be referenced by application build systems that use them, and they can also be updated on cadences independent of the application lifecycles. However, at first it might make sense to put all shared constructs in one repository.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Also, move packages to their own repository when different teams are working on them. This helps enforce access control.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>To consume packages across repository boundaries, you need a private package repository—</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">similar to NPM, PyPi, or Maven Central, but internal to your organization. You also need a release process that builds, tests, and publishes the package to the private package repository. CodeArtifact can host packages for most popular programming languages.
+</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Dependencies on packages in the package repository are managed by your language’s package manager, such as NPM for TypeScript or JavaScript applications. Your package manager helps to make sure that builds are repeatable. It does this by recording the specific versions of every package that your application depends on. It also lets you upgrade those dependencies in a controlled manner.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Shared packages need a different testing strategy. For a single application, it might be good enough to deploy the application to a testing environment and confirm that it still works. But shared packages must be tested independently of the consuming application, as if they were being released to the public. (Your organization might choose to actually release some shared packages to the public.)
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep in mind that a construct can be arbitrarily simple or complex. A Bucket is a construct, but CameraShopWebsite could be a construct, too.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Infrastructure and runtime code live in the same package</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">In addition to generating AWS CloudFormation templates for deploying infrastructure, the AWS CDK also bundles runtime assets like Lambda functions and Docker images and deploys them alongside your infrastructure. This makes it possible to combine the code that defines your infrastructure and the code that implements your runtime logic into a single construct. It’s a best practice to do this. These two kinds of code don’t need to live in separate repositories or even in separate packages.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">To evolve the two kinds of code together, you can use a self-contained construct that completely describes a piece of functionality, including its infrastructure and logic. With a self-contained construct, you can test the two kinds of code in isolation, share and reuse the code across projects, and version all the code in sync.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This section contains best practices for developing constructs. Constructs are reusable, composable modules that encapsulate resources. They’re the building blocks of AWS CDK apps.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Model with constructs, deploy with stacks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Configure with properties and methods, not environment variables</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unit test your infrastructure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">To consistently run a full suite of unit tests at build time in all environments, avoid network lookups during synthesis and model all your production stages in code. (These best practices are covered later.) If any single commit always results in the same generated template, you can trust the unit tests that you write to confirm that the generated templates look the way you expect. For more information, see Test AWS CDK applications.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Don’t change the logical ID of stateful resources</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Changing the logical ID of a resource results in the resource being replaced with a new one at the next deployment. For stateful resources like databases and S3 buckets, or persistent infrastructure like an Amazon VPC, this is seldom what you want. Be careful about any refactoring of your AWS CDK code that could cause the ID to change. Write unit tests that assert that the logical IDs of your stateful resources remain static. The logical ID is derived from the id you specify when you instantiate the construct, and the construct’s position in the construct tree. For more information, see Logical IDs.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Constructs aren’t enough for compliance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">In this section we discuss how to write your AWS CDK applications, combining constructs to define how your AWS resources are connected.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Make decisions at synthesis time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Use generated resource names, not physical names</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If the two stacks are in the same AWS CDK app, pass a reference between the two stacks. For example, save a reference to the resource’s construct as an attribute of the defining stack (this.stack.uploadBucket = amzn-s3-demo-bucket). Then, pass that attribute to the constructor of the stack that needs the resource.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">When the two stacks are in different AWS CDK apps, use a static from method to use an externally defined resource based on its ARN, name, or other attributes. (For example, use Table.fromArn() for a DynamoDB table). Use the CfnOutput construct to print the ARN or other required value in the output of cdk deploy, or look in the AWS Management Console. Alternatively, the second app can read the CloudFormation template generated by the first app and retrieve that value from the Outputs section.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Define removal policies and log retention</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Separate your application into multiple stacks as dictated by deployment requirements</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">There is no hard and fast rule to how many stacks your application needs. You’ll usually end up basing the decision on your deployment patterns. Keep in mind the following guidelines:
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>It’s typically more straightforward to keep as many resources in the same stack as possible, so keep them together unless you know you want them separated.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Consider keeping stateful resources (like databases) in a separate stack from stateless resources. You can then turn on termination protection on the stateful stack. This way, you can freely destroy or create multiple copies of the stateless stack without risk of data loss.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Commit cdk.context.json to avoid non-deterministic behavior</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If you provision an Amazon VPC to all available Availability Zones in a specified Region, and the number of AZs is two on deployment day, then your IP space gets split in half. If AWS launches a new Availability Zone the next day, the next deployment after that tries to split your IP space into thirds, requiring all subnets to be recreated. This probably won’t be possible because your Amazon EC2 instances are still running, and you’ll have to clean this up manually.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If you query for the latest Amazon Linux machine image and deploy an Amazon EC2 instance, and the next day a new image is released, a subsequent deployment picks up the new AMI and replaces all your instances. This might not be what you expected to happen.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Let the AWS CDK manage roles and security groups</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Model all production stages in code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Measure everything</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Achieving the goal of full continuous deployment, with no human intervention, requires a high level of automation. That automation is only possible with extensive amounts of monitoring. To measure all aspects of your deployed resources, create metrics, alarms, and dashboards. Don’t stop at measuring things like CPU usage and disk space. Also record your business metrics, and use those measurements to automate deployment decisions like rollbacks. Most of the L2 constructs in AWS CDK have convenience methods to help you create metrics, such as the metricUserErrors() method on the dynamodb.Table class.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS CDK は、お客様と社内チームのニーズ、そして複雑なクラウドアプリケーションの導入と継続的なメンテナンス中に頻繁に発生する障害パターンを綿密に考慮して開発されました。その結果、障害の多くは、構成変更など、アプリケーションに対する「帯域外」の変更が十分にテストされていないことに起因していることがわかりました。そのため、AWS CDK は、ビジネスロジックだけでなく、インフラストラクチャや構成も含め、アプリケーション全体をコードで定義するモデルに基づいて開発されました。これにより、提案された変更は慎重に検討され、本番環境にほぼ近い環境で包括的にテストされ、問題が発生した場合は完全にロールバックすることが可能になります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS CDK 導入の初期段階では、組織を成功に導くための体制構築方法を検討することが重要です。CDK 導入にあたっては、社内の従業員のトレーニングと指導を担当する専門家チームを編成することがベストプラクティスです。このチームの規模は、小規模企業では 1 ～ 2 人程度、大規模企業では本格的な Cloud Center of Excellence (CCoE) まで様々です。このチームは、社内のクラウド インフラストラクチャに関する標準とポリシーの設定、そして開発者のトレーニングと指導を担当します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CCoEは、クラウドインフラストラクチャにどのプログラミング言語を使用すべきかについてガイダンスを提供する場合があります。詳細は組織によって異なりますが、適切なポリシーがあれば、開発者が企業のクラウドインフラストラクチャを理解し、維持管理できるようになります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CCoE は、AWS 内の組織単位を定義する「ランディングゾーン」も作成します。ランディングゾーンとは、ベストプラクティスのブループリントに基づいて、事前設定済みの安全でスケーラブルなマルチアカウント AWS 環境です。ランディングゾーンを構成するサービスを連携させるには、AWS Control Tower を使用できます。AWS Control Tower は、マルチアカウントシステム全体を単一のユーザーインターフェースから設定および管理します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このセクションでは、AWS CDK コードを整理するためのベストプラクティスを紹介します。次の図は、チームとそのチームのコードリポジトリ、パッケージ、アプリケーション、コンストラクトライブラリの関係を示しています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">私たちのベストプラクティスのほとんどに共通する指針は、物事を可能な限りシンプルに保つことです。ただし、シンプルすぎるということはありません。要件によって複雑なソリューションが必要になる場合にのみ、複雑さを増してください。AWS CDK を使用すると、新しい要件に対応するために必要に応じてコードをリファクタリングできます。あらゆるシナリオを想定して事前に設計する必要はありません。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS Well-Architected フレームワークでは、コンポーネントとは、要件を満たすコード、設定、AWS リソースの集合体と定義されています。コンポーネントは多くの場合、技術的な所有権の単位であり、他のコンポーネントとは分離されています。ワークロードという用語は、ビジネス価値を共に提供する一連のコンポーネントを指すために使用されます。ワークロードは通常、ビジネスリーダーとテクノロジーリーダーが共有する詳細なレベルを指します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS CDK アプリケーションは、AWS Well-Architected フレームワークで定義されたコンポーネントにマッピングされます。AWS CDK アプリは、Well-Architected クラウドアプリケーションのベストプラクティスを体系化し、提供するためのメカニズムです。また、AWS CodeArtifact などのアーティファクトリポジトリを通じて、再利用可能なコードライブラリとしてコンポーネントを作成および共有することもできます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シンプルに始め、必要な時にのみ複雑さを増す</t>
+  </si>
+  <si>
+    <t>AWS Well-Architected フレームワークに準拠</t>
+  </si>
+  <si>
+    <t>すべてのアプリケーションは、単一のリポジトリ内の単一のパッケージから始まります</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単一のパッケージは、AWS CDK アプリのエントリポイントです。ここで、アプリケーションのさまざまな論理ユニットをどのように、どこにデプロイするかを定義します。また、アプリケーションをデプロイするための CI/CD パイプラインも定義します。アプリの構成要素が、ソリューションの論理ユニットを定義します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数のアプリケーションで使用する構成要素には、追加のパッケージを使用します。（共有構成要素には、独自のライフサイクルとテスト戦略も必要です。）同じリポジトリ内のパッケージ間の依存関係は、リポジトリのビルドツールによって管理されます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数のアプリケーションを同じリポジトリに配置することは可能ですが、特に自動デプロイパイプラインを使用する場合は推奨しません。これを行うと、デプロイ中の変更の「影響範囲」が拡大します。リポジトリに複数のアプリケーションがある場合、1つのアプリケーションに変更を加えると、他のアプリケーションに変更がない場合でも、他のアプリケーションのデプロイがトリガーされます。さらに、1つのアプリケーションに障害が発生すると、他のアプリケーションのデプロイが停止してしまいます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パッケージが複数のアプリケーションで使用され始めたら、それらを専用のリポジトリに移動してください。こうすることで、パッケージはそれらを使用するアプリケーションビルドシステムから参照できるようになり、アプリケーションのライフサイクルとは独立した周期で更新できるようになります。ただし、最初は、共有されるすべての構成要素を1つのリポジトリに配置する方が合理的かもしれません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コードのライフサイクルまたはチームの所有権に基づいてコードをリポジトリに移動する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、複数のチームが作業している場合は、パッケージを専用のリポジトリに移動してください。これにより、アクセス制御を強化できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リポジトリの境界を越えてパッケージを利用するには、NPM、PyPi、Maven Central に似た、組織内部のプライベートパッケージリポジトリが必要です。また、パッケージをビルド、テストし、プライベートパッケージリポジトリに公開するリリースプロセスも必要です。CodeArtifact は、ほとんどの一般的なプログラミング言語のパッケージをホストできます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パッケージリポジトリ内のパッケージへの依存関係は、TypeScriptやJavaScriptアプリケーションの場合はNPMなど、言語のパッケージマネージャーによって管理されます。パッケージマネージャーは、アプリケーションが依存するすべてのパッケージの具体的なバージョンを記録することで、ビルドの繰り返し実行を可能にします。また、これらの依存関係を制御された方法でアップグレードすることも可能です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共有パッケージには、異なるテスト戦略が必要です。単一のアプリケーションであれば、アプリケーションをテスト環境にデプロイして動作を確認すれば十分かもしれません。しかし、共有パッケージは、一般公開されているかのように、使用するアプリケーションとは独立してテストする必要があります。（組織によっては、一部の共有パッケージを実際に一般公開することを選択する場合もあります。）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構成要素は任意に単純化することも複雑化することもできることを覚えておいてください。Bucket も構成要素ですが、CameraShopWebsite も構成要素になり得ます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インフラストラクチャとランタイムコードは同じパッケージ内に存在する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS CDK は、インフラストラクチャをデプロイするための AWS CloudFormation テンプレートを生成するだけでなく、Lambda 関数や Docker イメージなどのランタイムアセットもバンドルし、インフラストラクチャと一緒にデプロイします。これにより、インフラストラクチャを定義するコードとランタイムロジックを実装するコードを単一の構造に統合することが可能になります。これはベストプラクティスです。これら 2 種類のコードは、別々のリポジトリや別々のパッケージに配置する必要はありません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2種類のコードを連携して進化させるには、インフラストラクチャやロジックを含む機能全体を完全に記述する自己完結型の構造を使用できます。自己完結型の構造を使用することで、2種類のコードを個別にテストし、プロジェクト間でコードを共有・再利用し、すべてのコードのバージョンを同期させることができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このセクションでは、コンストラクトの開発に関するベストプラクティスを紹介します。コンストラクトとは、リソースをカプセル化する再利用可能で構成可能なモジュールであり、AWS CDK アプリの構成要素となります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構成要素でモデル化し、スタックでデプロイする</t>
+  </si>
+  <si>
+    <t>環境変数ではなく、プロパティとメソッドで構成する</t>
+  </si>
+  <si>
+    <t>インフラストラクチャのユニットテストを実施する</t>
+  </si>
+  <si>
+    <t>ステートフルリソースの論理IDを変更しない</t>
+  </si>
+  <si>
+    <t>構成要素だけではコンプライアンスには不十分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">すべての環境でビルド時に完全なユニットテストスイートを一貫して実行するには、合成中のネットワークルックアップを回避し、すべての本番環境段階をコードでモデル化します。（これらのベストプラクティスについては後述します。）単一のコミットで常に同じテンプレートが生成されれば、作成したユニットテストを信頼して、生成されたテンプレートが期待どおりであることを確認できます。詳細については、「AWS CDK アプリケーションのテスト」をご覧ください。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このセクションでは、AWS リソースの接続方法を定義する構造を組み合わせて、AWS CDK アプリケーションを作成する方法について説明します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Names are a precious resource. Each name can only be used once. Therefore, if you hardcode a table name or bucket name into your infrastructure and application, you can’t deploy that piece of infrastructure twice in the same account. (The name we’re talking about here is the name specified by, for example, the bucketName property on an Amazon S3 bucket construct.)
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">What’s worse, you can’t make changes to the resource that require it to be replaced. If a property can only be set at resource creation, such as the KeySchema of an Amazon DynamoDB table, then that property is immutable. Changing this property requires a new resource. However, the new resource must have the same name in order to be a true replacement. But it can’t have the same name while the existing resource is still using that name.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A better approach is to specify as few names as possible. If you omit resource names, the AWS CDK will generate them for you in a way that won’t cause problems. Suppose you have a table as a resource. You can then pass the generated table name as an environment variable into your AWS Lambda function. In your AWS CDK application, you can reference the table name as table.tableName. Alternatively, you can generate a configuration file on your Amazon EC2 instance on startup, or write the actual table name to the AWS Systems Manager Parameter Store so your application can read it from there.
+If the place you need it is another AWS CDK stack, that’s even more straightforward. Supposing that one stack defines the resource and another stack needs to use it, the following applies:
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前は貴重なリソースです。それぞれの名前は一度しか使用できません。そのため、テーブル名やバケット名をインフラストラクチャやアプリケーションにハードコードした場合、同じアカウントにそのインフラストラクチャを2回デプロイすることはできません。（ここで言う名前とは、例えばAmazon S3バケットコンストラクトのbucketNameプロパティで指定される名前のことです。）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さらに悪いことに、リソースに変更を加えて置き換えなければならないという事態は起こりません。Amazon DynamoDB テーブルの KeySchema のように、リソース作成時にのみ設定可能なプロパティは不変です。このプロパティを変更するには、新しいリソースが必要です。しかし、真の置き換えとなるためには、新しいリソースの名前は同じである必要があります。既存のリソースがまだその名前を使用している間は、新しいリソースに同じ名前を付けることはできません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>より良いアプローチは、名前をできるだけ少なく指定することです。リソース名を省略した場合、AWS CDK は問題が発生しない方法でリソース名を生成します。リソースとしてテーブルがあるとします。生成されたテーブル名を環境変数として AWS Lambda 関数に渡すことができます。AWS CDK アプリケーションでは、テーブル名を table.tableName として参照できます。または、Amazon EC2 インスタンスの起動時に設定ファイルを生成するか、実際のテーブル名を AWS Systems Manager パラメータストアに書き込んで、アプリケーションがそこから読み取れるようにすることもできます。
+必要な場所が別の AWS CDK スタックである場合は、さらに簡単です。あるスタックでリソースを定義し、別のスタックでそれを使用する必要がある場合、次のようになります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2つのスタックが同じAWS CDKアプリ内にある場合は、2つのスタック間で参照を渡します。例えば、リソースのコンストラクトへの参照を、定義スタックの属性として保存します（this.stack.uploadBucket = amzn-s3-demo-bucket）。そして、その属性を、リソースを必要とするスタックのコンストラクタに渡します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2 つのスタックが異なる AWS CDK アプリ内にある場合は、静的な from メソッドを使用して、ARN、名前、その他の属性に基づいて外部定義リソースを使用します（たとえば、DynamoDB テーブルの場合は Table.fromArn() を使用します）。CfnOutput コンストラクトを使用して、cdk deploy の出力に ARN またはその他の必要な値を出力するか、AWS マネジメントコンソールで確認します。あるいは、2 番目のアプリで最初のアプリによって生成された CloudFormation テンプレートを読み取り、その値を Outputs セクションから取得することもできます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合成時に決定を下す</t>
+  </si>
+  <si>
+    <t>物理名ではなく、生成されたリソース名を使用する</t>
+  </si>
+  <si>
+    <t>削除ポリシーとログ保持を定義する</t>
+  </si>
+  <si>
+    <t>デプロイメント要件に応じて、アプリケーションを複数のスタックに分割する</t>
+  </si>
+  <si>
+    <t>非決定的な動作を避けるために cdk.context.json をコミットする</t>
+  </si>
+  <si>
+    <t>AWS CDK でロールとセキュリティグループを管理できるようにする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべての製造工程をコードでモデル化</t>
+  </si>
+  <si>
+    <t>すべてを測定</t>
+  </si>
+  <si>
+    <t>アプリケーションに必要なスタックの数に明確なルールはありません。通常は、デプロイメントパターンに基づいて決定することになります。以下のガイドラインに留意してください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステートフルリソース（データベースなど）をステートレスリソースとは別のスタックに保持することを検討してください。ステートフルスタックの終了保護を有効にすると、データ損失のリスクなしに、ステートレススタックを自由に破棄したり、複数のコピーを作成したりできます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Stateful resources are more sensitive to construct renaming—</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">renaming leads to resource replacement. Therefore, don’t nest stateful resources inside constructs that are likely to be moved around or renamed (unless the state can be rebuilt if lost, like a cache). This is another good reason to put stateful resources in their own stack.
+</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステートフルリソースは、構造体の名前変更の影響を受けやすく、名前変更はリソースの置き換えにつながります。そのため、移動や名前変更される可能性のある構造体内にステートフルリソースをネストしないでください（キャッシュのように、状態が失われた場合に再構築できる場合を除きます）。これは、ステートフルリソースを独自のスタックに配置するもう1つの理由です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定のリージョン内のすべての利用可能なアベイラビリティゾーンにAmazon VPCをプロビジョニングし、デプロイ日にアベイラビリティゾーンの数が2つだった場合、IP空間は半分に分割されます。AWSが翌日に新しいアベイラビリティゾーンをリリースした場合、その次のデプロイではIP空間を3つに分割しようとし、すべてのサブネットを再作成する必要があります。Amazon EC2インスタンスがまだ稼働しているため、この処理はおそらく不可能で、手動でクリーンアップする必要があります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">最新の Amazon Linux マシンイメージをクエリして Amazon EC2 インスタンスをデプロイし、翌日に新しいイメージがリリースされた場合、その後のデプロイでは新しい AMI が取得され、すべてのインスタンスが置き換えられます。これは、予想外の事態になるかもしれません。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人間の介入なしに完全な継続的デプロイを実現するには、高度な自動化が必要です。この自動化は、広範なモニタリングによってのみ実現可能です。デプロイしたリソースのあらゆる側面を測定するには、メトリクス、アラーム、ダッシュボードを作成しましょう。CPU使用率やディスク容量などの測定だけに留まらず、ビジネスメトリクスを記録し、それらの測定値を使用してロールバックなどのデプロイの意思決定を自動化しましょう。AWS CDKのL2コンストラクトのほとんどには、dynamodb.TableクラスのmetricUserErrors()メソッドなど、メトリクスの作成に役立つ便利なメソッドが用意されています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">スタックは、これらの論理ユニットのデプロイメントモデルを定義します。CDK の背後にある概念の詳細については、「AWS CDK の開始方法」をご覧ください。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS CDK を使用すると、開発者や管理者はサポートされているプログラミング言語を使用してクラウドインフラストラクチャを定義できます。CDK アプリケーションは、API、データベース、監視リソースなどの論理ユニットに編成され、オプションで自動デプロイ用のパイプラインも備えます。論理ユニットは、以下の要素を含む構成要素として実装する必要があります。
+インフラストラクチャ（Amazon S3 バケット、Amazon RDS データベース、Amazon VPC ネットワークなど）
+ランタイムコード（AWS Lambda 関数など）
+構成コード
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Stacks define the deployment model of these logical units. For a more detailed introduction to the concepts behind the CDK, see Getting started with the AWS CDK.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">With the AWS CDK, developers or administrators can define their cloud infrastructure by using a supported programming language. CDK applications should be organized into logical units, such as API, database, and monitoring resources, and optionally have a pipeline for automated deployments. The logical units should be implemented as constructs including the following:
+Infrastructure (such as Amazon S3 buckets, Amazon RDS databases, or an Amazon VPC network)
+Runtime code (such as AWS Lambda functions)
+Configuration code
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・CDK アプリケーションは、API、データベース、監視リソースなどの論理ユニットに編成され、オプションで自動デプロイ用のパイプラインも備えます。
+・論理ユニットは、以下の要素を含む。
+インフラストラクチャ（Amazon S3 バケット、Amazon RDS データベース、Amazon VPC ネットワークなど）
+ランタイムコード（AWS Lambda 関数など）
+構成コード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Getting started with the AWS CDK
+https://docs.aws.amazon.com/cdk/v2/guide/getting-started.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS CDK は、ビジネスロジックだけでなく、インフラストラクチャや構成も含め、アプリケーション全体をコードで定義するモデルに基づいて開発されました。
+本番環境にほぼ近い環境で包括的にテストされ、問題が発生した場合は完全にロールバックすることが可能になります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デプロイ時に、AWS CDK は以下の要素を含むクラウドアセンブリを合成します。
+すべてのターゲット環境におけるインフラストラクチャを記述する AWS CloudFormation テンプレート
+ランタイムコードとそのサポートファイルを含むファイルアセット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">At deployment time, the AWS CDK synthesizes a cloud assembly that contains the following:
+AWS CloudFormation templates that describe your infrastructure in all target environments
+File assets that contain your runtime code and their supporting files
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">デプロイ時に、AWS CDK は以下の要素を含むクラウドアセンブリを合成します。
+すべてのターゲット環境におけるインフラストラクチャを記述する AWS CloudFormation テンプレート
+ランタイムコードとそのサポートファイルを含むファイルアセット
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">With the CDK, every commit in your application’s main version control branch can represent a complete, consistent, deployable version of your application. Your application can then be deployed automatically whenever a change is made.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The philosophy behind the AWS CDK leads to our recommended best practices, which we have divided into four broad categories.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CDK を使用すると、アプリケーションのメインバージョン管理ブランチにおけるすべてのコミットが、アプリケーションの完全で一貫性のある、デプロイ可能なバージョンを表すことができます。変更が行われるたびに、アプリケーションは自動的にデプロイされます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS CDK の背後にある理念に基づき、私たちは推奨されるベストプラクティスを4つの大まかなカテゴリに分類しています。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CDK を使用すると、アプリケーションのメインバージョン管理ブランチにおけるすべてのコミットが、アプリケーションの完全で一貫性のある、デプロイ可能なバージョンを表すことができます。
+変更が行われるたびに、アプリケーションは自動的にデプロイされます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CDK 導入にあたっては、社内の従業員のトレーニングと指導を担当する専門家チームを編成することがベストプラクティスです。
+大規模企業では本格的な Cloud Center of Excellence (CCoE)
+社内のクラウド インフラストラクチャに関する標準とポリシーの設定、そして開発者のトレーニングと指導を担当します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CCoEは、クラウドインフラストラクチャにどのプログラミング言語を使用すべきかについてガイダンスを提供する
+適切なポリシーがあれば、開発者が企業のクラウドインフラストラクチャを理解し、維持管理できるようになります。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CCoE は、AWS 内の組織単位を定義する「ランディングゾーン」も作成します。
+ランディングゾーンとは、ベストプラクティスのブループリントに基づいて、事前設定済みの安全でスケーラブルなマルチアカウント AWS 環境です。
+ランディングゾーンを構成するサービスを連携させるには、AWS Control Tower を使用できます。
+AWS Control Tower は、マルチアカウントシステム全体を単一のユーザーインターフェースから設定および管理します。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>開発チームは、テスト用に独自のアカウントを使用し、必要に応じてこれらのアカウントに新しいリソースをデプロイできる必要があります。個々の開発者は、これらのリソースを自身の開発ワークステーションの拡張機能として扱うことができます。CDK Pipelines を使用すると、AWS CDK アプリケーションを CI/CD アカウント経由でテスト環境、統合環境、本番環境（それぞれが独自の AWS リージョンまたはアカウントに分離されています）にデプロイできます。これは、開発者のコ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>​​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ードを組織の正規リポジトリにマージすることで実現されます。
+</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">開発チームは、テスト用に独自のアカウントを使用し、必要に応じてこれらのアカウントに新しいリソースをデプロイできる必要があります。
+CDK Pipelines を使用すると、AWS CDK アプリケーションを CI/CD アカウント経由でテスト環境、統合環境、本番環境（それぞれが独自の AWS リージョンまたはアカウントに分離されています）にデプロイできます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ベストプラクティスのほとんどに共通する指針は、物事を可能な限りシンプルに保つことです。
+要件によって複雑なソリューションが必要になる場合にのみ、複雑さを増してください。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS Well-Architected フレームワークでは、コンポーネントとは、要件を満たすコード、設定、AWS リソースの集合体と定義されています。
+コンポーネントは多くの場合、技術的な所有権の単位であり、他のコンポーネントとは分離されています。
+ワークロードという用語は、ビジネス価値を共に提供する一連のコンポーネントを指すために使用されます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS CDK アプリは、Well-Architected クラウドアプリケーションのベストプラクティスを体系化し、提供するためのメカニズムです。
+AWS CodeArtifact などのアーティファクトリポジトリを通じて、再利用可能なコードライブラリとしてコンポーネントを作成および共有することもできます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数のアプリケーションで使用する構成要素には、追加のパッケージを使用します。（共有構成要素には、独自のライフサイクルとテスト戦略も必要です。）
+同じリポジトリ内のパッケージ間の依存関係は、リポジトリのビルドツールによって管理されます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">単一のパッケージは、AWS CDK アプリのエントリポイントです。
+アプリケーションをデプロイするための CI/CD パイプラインも定義します。
+アプリの構成要素が、ソリューションの論理ユニットを定義します。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">複数のアプリケーションを同じリポジトリに配置することは推奨しません。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パッケージが複数のアプリケーションで使用され始めたら、それらを専用のリポジトリに移動する
+パッケージはそれらを使用するアプリケーションビルドシステムから参照できるようになり、アプリケーションのライフサイクルとは独立した周期で更新できるようになります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">リポジトリの境界を越えてパッケージを利用するには、NPM、PyPi、Maven Central に似た、組織内部のプライベートパッケージリポジトリが必要です。
+パッケージをビルド、テストし、プライベートパッケージリポジトリに公開するリリースプロセスも必要です。
+CodeArtifact は、ほとんどの一般的なプログラミング言語のパッケージをホストできます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeArtifactで、NPMパッケージを管理する。
+</t>
+    <rPh sb="23" eb="25">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CDK Pipelines を使用して、サービスロールで、AWS CDK アプリケーションを CI/CD アカウント経由でテスト環境、統合環境、本番環境（それぞれが独自の AWS リージョンまたはアカウントに分離されています）にデプロイする。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">パッケージマネージャーは、アプリケーションが依存するすべてのパッケージの具体的なバージョンを記録する
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共有パッケージは、一般公開されているかのように、使用するアプリケーションとは独立してテストする必要があります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS CDK は、インフラストラクチャをデプロイするための AWS CloudFormation テンプレートを生成するだけでなく、Lambda 関数や Docker イメージなどのランタイムアセットもバンドルし、インフラストラクチャと一緒にデプロイします。
+インフラストラクチャを定義するコードとランタイムロジックを実装するコードを単一の構造に統合することが可能になります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">コンストラクトとは、リソースをカプセル化する再利用可能で構成可能なモジュールであり、AWS CDK アプリの構成要素となります。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Stacks are the unit of deployment: everything in a stack is deployed together. So when building your application’s higher-level logical units from multiple AWS resources, represent each logical unit as a Construct, not as a Stack. Use stacks only to describe how your constructs should be composed and connected for your various deployment scenarios.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">For example, if one of your logical units is a website, the constructs that make it up (such as an Amazon S3 bucket, API Gateway, Lambda functions, or Amazon RDS tables) should be composed into a single high-level construct. Then that construct should be instantiated in one or more stacks for deployment.
+By using constructs for building and stacks for deploying, you improve reuse potential of your infrastructure and give yourself more flexibility in how it’s deployed.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">スタックはデプロイメントの単位です。スタック内のすべての要素はまとめてデプロイされます。そのため、複数の AWS リソースからアプリケーションの高レベル論理ユニットを構築する場合は、各論理ユニットをスタックではなくコンストラクトとして表します。スタックは、さまざまなデプロイメントシナリオに合わせてコンストラクトをどのように構成し、接続するかを記述する場合にのみ使用します。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例えば、論理ユニットの 1 つがウェブサイトである場合、それを構成するコンストラクト（Amazon S3 バケット、API Gateway、Lambda 関数、Amazon RDS テーブルなど）は、単一の高レベルコンストラクトに構成する必要があります。その後、そのコンストラクトを 1 つ以上のスタックにインスタンス化してデプロイメントする必要があります。
+構築にコンストラクトを使用し、デプロイにスタックを使用することで、インフラストラクチャの再利用性を高め、より柔軟なデプロイ方法を実現できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">スタックはデプロイメントの単位
+複数の AWS リソースからアプリケーションの高レベル論理ユニットを構築する場合は、各論理ユニットをスタックではなくコンストラクトとして表します。
+スタックは、さまざまなデプロイメントシナリオに合わせてコンストラクトをどのように構成し、接続するかを記述する場合にのみ使用します。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">論理ユニットは、それを構成するコンストラクト（Amazon S3 バケット、API Gateway、Lambda 関数、Amazon RDS テーブルなど）を、単一の高レベルコンストラクトに構成する必要があります。
+コンストラクトを 1 つ以上のスタックにインスタンス化してデプロイメントする必要があります。
+構築にコンストラクトを使用し、デプロイにスタックを使用することで、インフラストラクチャの再利用性を高め、より柔軟なデプロイ方法を実現できます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンストラクトとスタック内での環境変数の参照は、よくあるアンチパターン
+コンストラクトとスタックはどちらも、コード内で完全に設定できるように、プロパティオブジェクトを受け入れる
+コードが実行されるマシンへの依存関係が生じ、追跡および管理が必要な設定情報がさらに増えないようにする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Environment variable lookups inside constructs and stacks are a common anti-pattern. Both constructs and stacks should accept a properties object to allow for full configurability completely in code. Doing otherwise introduces a dependency on the machine that the code will run on, which creates yet more configuration information that you have to track and manage.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">In general, environment variable lookups should be limited to the top level of an AWS CDK app. They should also be used to pass in information that’s needed for running in a development environment. For more information, see Environments for the AWS CDK.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">コンストラクトとスタック内での環境変数の参照は、よくあるアンチパターンです。コンストラクトとスタックはどちらも、コード内で完全に設定できるように、プロパティオブジェクトを受け入れる必要があります。そうしないと、コードが実行されるマシンへの依存関係が生じ、追跡および管理が必要な設定情報がさらに増えてしまいます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般的に、環境変数の参照はAWS CDKアプリのトップレベルに限定する必要があります。また、開発環境での実行に必要な情報を渡すためにも使用する必要があります。詳細については、「AWS CDKの環境」をご覧ください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境変数の参照はAWS CDKアプリのトップレベルに限定する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合成中のネットワークルックアップを回避する
+単一のコミットで常に同じテンプレートが生成されれば、作成したユニットテストを信頼して、生成されたテンプレートが期待どおりであることを確認できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>リソースの論理 ID を変更すると、次回のデプロイ時にリソースが新しい ID に置き換えられます。データベースや S3 バケットなどのステートフルリソース、または Amazon VPC のような永続的なインフラストラクチャの場合、これはほとんど望ましくありません。ID の変更を引き起こす可能性のある AWS CDK コードのリファクタリングには注意してください。ステートフルリソースの論理 ID が静的のままであることをアサートする単体テストを作成してください。論理 ID は、コンストラクトをインスタンス化するときに指定した ID と、コンストラクトツリー内の位置から派生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>​​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>します。詳細については、「論理 ID」を参照してください。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リソースの論理 ID を変更すると、次回のデプロイ時にリソースが新しい ID に置き換えられます。
+データベースや S3 バケットなどのステートフルリソース、または Amazon VPC のような永続的なインフラストラクチャの場合、論理IDを変更すべきでない。
+ステートフルリソースの論理 ID が静的のままであることをアサートする単体テストを作成する。</t>
+    <rPh sb="117" eb="119">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サービスコントロールポリシーや権限境界などのAWS機能を使用して、組織レベルでセキュリティガードレールを適用する。
+AspectsとAWS CDK、またはCloudFormation Guardなどのツールを使用して、デプロイ前にインフラストラクチャ要素のセキュリティプロパティに関するアサーションを実行する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">最後に、独自の「L2+」コンストラクトを作成すると、開発者がAWS Solutions ConstructsなどのAWS CDKパッケージやConstruct Hubのサードパーティ製コンストラクトを活用できなくなる可能性があることにご注意ください。これらのパッケージは通常、標準の AWS CDK コンストラクトに基づいて構築されており、ラッパーコンストラクトを使用することはできません。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Finally, keep in mind that writing your own "L2+" constructs might prevent your developers from taking advantage of AWS CDK packages such as AWS Solutions Constructs or third-party constructs from Construct Hub. These packages are typically built on standard AWS CDK constructs and won’t be able to use your wrapper constructs.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Many enterprise customers write their own wrappers for L2 constructs (the "curated" constructs that represent individual AWS resources with built-in sane defaults and best practices). These wrappers enforce security best practices such as static encryption and specific IAM policies. For example, you might create a MyCompanyBucket that you then use in your applications in place of the usual Amazon S3 Bucket construct. This pattern is useful for surfacing security guidance early in the software development lifecycle, but don’t rely on it as the sole means of enforcement.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Instead, use AWS features such as service control policies and permission boundaries to enforce your security guardrails at the organization level. Use Aspects and the AWS CDK or tools like CloudFormation Guard to make assertions about the security properties of infrastructure elements before deployment. Use AWS CDK for what it does best.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">多くのエンタープライズカスタマーは、L2コンストラクト（個々のAWSリソースを表す、妥当なデフォルトとベストプラクティスが組み込まれた「キュレーションされた」コンストラクト）用の独自のラッパーを作成しています。これらのラッパーは、静的暗号化や特定のIAMポリシーなどのセキュリティのベストプラクティスを適用します。例えば、MyCompanyBucketを作成し、それを通常のAmazon S3 Bucketコンストラクトの代わりにアプリケーションで使用するといったことが考えられます。このパターンは、ソフトウェア開発ライフサイクルの早い段階でセキュリティガイダンスを明らかにするのに役立ちますが、唯一の適用手段として依存すべきではありません。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">代わりに、サービスコントロールポリシーや権限境界などのAWS機能を使用して、組織レベルでセキュリティガードレールを適用してください。AspectsとAWS CDK、またはCloudFormation Guardなどのツールを使用して、デプロイ前にインフラストラクチャ要素のセキュリティプロパティに関するアサーションを実行してください。AWS CDKは、その本来の機能を最大限活用してください。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L2コンストラクト用の独自のラッパーは推奨しない。</t>
+    <rPh sb="19" eb="21">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発者がAWS Solutions ConstructsなどのAWS CDKパッケージやConstruct Hubのサードパーティ製コンストラクトは、標準の AWS CDK コンストラクトに基づいて構築されている。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS CDK アプリケーションでは、どの構成要素をインスタンス化するかなどのすべての決定を、プログラミング言語の if ステートメントやその他の機能を使用する。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS CloudFormation は、AWS CDK が堅牢なクラウドデプロイメントのために使用する実装の詳細
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS CloudFormation ではデプロイ時に条件、{Fn::If}、パラメータを使用して決定を下すことができ、AWS CDK からもこれらのメカニズムの一部にアクセスできますが、使用はお勧めしません。使用できる値の種類と、それらに対して実行できる操作の種類は、汎用プログラミング言語で利用できるものに比べて制限されています。
+代わりに、AWS CDK アプリケーションでは、どの構成要素をインスタンス化するかなどのすべての決定を、プログラミング言語の if ステートメントやその他の機能を使用して行うようにしてください。たとえば、リストを反復処理し、リスト内の各項目の値を使用して構成要素をインスタンス化するという、CDK の一般的なイディオムは、AWS CloudFormation の式では不可能です。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS CloudFormation は、言語ターゲットではなく、AWS CDK が堅牢なクラウドデプロイメントのために使用する実装の詳細として扱ってください。TypeScript や Python で AWS CloudFormation テンプレートを作成するのではなく、デプロイメントに CloudFormation を使用する CDK コードを作成します。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Although AWS CloudFormation lets you make decisions at deployment time (using Conditions, { Fn::If }, and Parameters), and the AWS CDK gives you some access to these mechanisms, we recommend against using them. The types of values that you can use and the types of operations you can perform on them are limited compared to what’s available in a general-purpose programming language.
+Instead, try to make all decisions, such as which construct to instantiate, in your AWS CDK application by using your programming language’s if statements and other features. For example, a common CDK idiom, iterating over a list and instantiating a construct with values from each item in the list, simply isn’t possible using AWS CloudFormation expressions.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Treat AWS CloudFormation as an implementation detail that the AWS CDK uses for robust cloud deployments, not as a language target. You’re not writing AWS CloudFormation templates in TypeScript or Python, you’re writing CDK code that happens to use CloudFormation for deployment.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前は一度しか使用できません。
+（ここで言う名前とは、例えばAmazon S3バケットコンストラクトのbucketNameプロパティで指定される名前のことです。）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">リソース作成時にのみ設定可能なプロパティを変更するには、新しいリソースが必要で、新しいリソースの名前は同じである必要があります。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">リソース作成時にのみ設定可能なプロパティは不変です。このプロパティを変更するには、新しいリソースが必要です。しかし、真の置き換えとなるためには、新しいリソースの名前は同じである必要があります。
+リソースのコンストラクトへの参照を、定義スタックの属性として保存します。そして、その属性を、リソースを必要とするスタックのコンストラクタに渡します。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2 つのスタックが異なる AWS CDK アプリ内にある場合は、静的な from メソッドを使用して、ARN、名前、その他の属性に基づいて外部定義リソースを使用します。
+CfnOutput コンストラクトを使用して、cdk deploy の出力に ARN またはその他の必要な値を出力する？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS CDK は、作成したすべてのデータを保持するポリシーをデフォルト設定する
+CDK のデフォルトでは、すべてのログが永久に保持されます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The AWS CDK attempts to keep you from losing data by defaulting to policies that retain everything you create. For example, the default removal policy on resources that contain data (such as Amazon S3 buckets and database tables) is not to delete the resource when it is removed from the stack. Instead, the resource is orphaned from the stack. Similarly, the CDK’s default is to retain all logs forever. In production environments, these defaults can quickly result in the storage of large amounts of data that you don’t actually need, and a corresponding AWS bill.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Consider carefully what you want these policies to be for each production resource and specify them accordingly. Use Aspects and the AWS CDK to validate the removal and logging policies in your stack.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS CDK は、作成したすべてのデータを保持するポリシーをデフォルト設定することで、データの損失を防ごうとします。例えば、データを含むリソース（Amazon S3 バケットやデータベーステーブルなど）に対するデフォルトの削除ポリシーでは、スタックからリソースが削除されてもリソースは削除されません。代わりに、リソースはスタックから孤立します。同様に、CDK のデフォルトでは、すべてのログが永久に保持されます。本番環境では、これらのデフォルト設定によって、実際には必要のない大量のデータがすぐに保存され、それに応じた AWS の請求が発生する可能性があります。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">本番環境の各リソースに対してどのようなポリシーを設定するかを慎重に検討し、それに応じて設定してください。Aspects と AWS CDK を使用して、スタック内の削除ポリシーとログ記録ポリシーを検証してください。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">通常、できるだけ多くのリソースを同じスタック内に保持する方が簡単なので、リソースを分離する必要があることがわかっている場合を除いて、リソースを一緒に保持します。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステートフルリソース（データベースなど）をステートレスリソースとは別のスタックに保持する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">リソースを分離する必要があることがわかっている場合を除いて、リソースを一緒に保持します。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステートフルリソースは、構造体の名前変更の影響を受けやすく、名前変更はリソースの置き換えにつながります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS CDK アプリは、特定の環境にデプロイされるたびに、基本的に同じ結果になる必要があります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Determinism is key to successful AWS CDK deployments. An AWS CDK app should have essentially the same result whenever it is deployed to a given environment.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Since your AWS CDK app is written in a general-purpose programming language, it can execute arbitrary code, use arbitrary libraries, and make arbitrary network calls. For example, you could use an AWS SDK to retrieve some information from your AWS account while synthesizing your app. Recognize that doing so will result in additional credential setup requirements, increased latency, and a chance, however small, of failure every time you run cdk synth.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Never modify your AWS account or resources during synthesis. Synthesizing an app should not have side effects. Changes to your infrastructure should happen only in the deployment phase, after the AWS CloudFormation template has been generated. This way, if there’s a problem, AWS CloudFormation can automatically roll back the change. To make changes that can’t be easily made within the AWS CDK framework, use custom resources to execute arbitrary code at deployment time.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Even strictly read-only calls are not necessarily safe. Consider what happens if the value returned by a network call changes. What part of your infrastructure will that impact? What will happen to already-deployed resources? Following are two example situations in which a sudden change in values might cause a problem.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS CDK のデプロイメントを成功させる鍵は、決定論です。AWS CDK アプリは、特定の環境にデプロイされるたびに、基本的に同じ結果になる必要があります。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS CDK アプリは汎用プログラミング言語で記述されているため、任意のコードを実行したり、任意のライブラリを使用したり、任意のネットワーク呼び出しを行ったりできます。たとえば、アプリの合成中に AWS SDK を使用して AWS アカウントから情報を取得できます。ただし、これを行うと、認証情報の設定要件が追加され、レイテンシーが増加し、cdk synth を実行するたびに、たとえわずかでもエラーが発生する可能性があることに注意してください。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">合成中は AWS アカウントやリソースを変更しないでください。アプリの合成には副作用があってはなりません。インフラストラクチャへの変更は、AWS CloudFormation テンプレートが生成された後のデプロイメントフェーズでのみ行う必要があります。こうすることで、問題が発生した場合、AWS CloudFormation が自動的に変更をロールバックできます。AWS CDK フレームワーク内で簡単に変更できない変更を行うには、カスタムリソースを使用して、デプロイ時に任意のコードを実行してください。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>厳密に読み取り専用の呼び出しであっても、必ずしも安全とは限りません。ネットワーク呼び出しによって返される値が変化した場合に何が起こるかを考えてみましょう。インフラストラクチャのどの部分に影響が出るでしょうか？既にデプロイされているリソースはどうなるでしょうか？以下に、突然の値の変化が問題を引き起こす可能性のある2つの状況の例を示します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">合成中は AWS アカウントやリソースを変更しない。
+インフラストラクチャへの変更は、AWS CloudFormation テンプレートが生成された後のデプロイメントフェーズでのみ行う必要があります。
+こうすることで、問題が発生した場合、AWS CloudFormation が自動的に変更をロールバックできます。
+AWS CDK フレームワーク内で簡単に変更できない変更を行うには、カスタムリソースを使用して、デプロイ時に任意のコードを実行する。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>厳密に読み取り専用の呼び出しであっても、必ずしも安全とは限りません。
+同じCDKを実行しても、実行のタイミングによって、結果が変わることもある、</t>
+    <rPh sb="36" eb="37">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS側の変更は、数ヶ月あるいは数年にわたるデプロイメントの成功後に発生する可能性があるため、このような状況は深刻化する可能性があります。突然、デプロイメントが「理由もなく」失敗し、何をしたのか、なぜそうしたのかをずっと前に忘れてしまう、といった事態に陥るかもしれません。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">幸いなことに、AWS CDKには、非決定的な値のスナップショットを記録するコンテキストプロバイダーと呼ばれるメカニズムが含まれています。これにより、将来の合成操作で、最初にデプロイされたときと全く同じテンプレートを生成できます。新しいテンプレートで変更されるのは、コードに加えた変更のみです。コンストラクトの.fromLookup()メソッドを使用すると、呼び出しの結果はcdk.context.jsonにキャッシュされます。CDKアプリの将来の実行で同じ値が使用されるように、このキャッシュを他のコードと共にバージョン管理にコミットする必要があります。CDKツールキットにはコンテキストキャッシュを管理するためのコマンドが含まれているため、必要に応じて特定のエントリを更新できます。詳細については、「コンテキスト値とAWS CDK」を参照してください。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ネイティブCDKコンテキストプロバイダーが存在しない値（AWSなどから取得）が必要な場合は、別途スクリプトを作成することをお勧めします。このスクリプトは値を取得してファイルに書き込み、CDKアプリでそのファイルを読み込みます。このスクリプトは、通常のビルドプロセスではなく、保存された値を更新したい場合にのみ実行してください。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">These situations can be pernicious because the AWS-side change might occur after months or years of successful deployments. Suddenly your deployments are failing "for no reason" and you long ago forgot what you did and why.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortunately, the AWS CDK includes a mechanism called context providers to record a snapshot of non-deterministic values. This allows future synthesis operations to produce exactly the same template as they did when first deployed. The only changes in the new template are the changes that you made in your code. When you use a construct’s .fromLookup() method, the result of the call is cached in cdk.context.json. You should commit this to version control along with the rest of your code to make sure that future executions of your CDK app use the same value. The CDK Toolkit includes commands to manage the context cache, so you can refresh specific entries when you need to. For more information, see Context values and the AWS CDK.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If you need some value (from AWS or elsewhere) for which there is no native CDK context provider, we recommend writing a separate script. The script should retrieve the value and write it to a file, then read that file in your CDK app. Run the script only when you want to refresh the stored value, not as part of your regular build process.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS CDKには、非決定的な値のスナップショットを記録するコンテキストプロバイダーと呼ばれるメカニズムが含まれています。
+これにより、将来の合成操作で、最初にデプロイされたときと全く同じテンプレートを生成できます。
+新しいテンプレートで変更されるのは、コードに加えた変更のみです。
+コンストラクトの.fromLookup()メソッドを使用すると、呼び出しの結果はcdk.context.jsonにキャッシュされます。
+CDKアプリの将来の実行で同じ値が使用されるように、このキャッシュを他のコードと共にバージョン管理にコミットする必要があります。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cdk.context.json
+は、リポジトリに登録する。
+</t>
+    <rPh sb="25" eb="27">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ネイティブCDKコンテキストプロバイダーが存在しない値（AWSなどから取得）が必要な場合は、別途スクリプトを作成することをお勧めします。
+このスクリプトは値を取得してファイルに書き込み、CDKアプリでそのファイルを読み込みます。
+このスクリプトは、通常のビルドプロセスではなく、保存された値を更新したい場合にのみ実行してください。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS CDKコンストラクトライブラリの grant() という便利なメソッドを使うと、最小限のスコープを持つ権限を使って、あるリソースから別のリソースへのアクセスを許可するAWS Identity and Access Managementロールを作成できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If you require developers to always use predefined roles that were created by a security team, AWS CDK coding becomes much more complicated. Your teams could lose a lot of flexibility in how they design their applications. A better alternative is to use service control policies and permission boundaries to make sure that developers stay within the guardrails.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">With the AWS CDK construct library’s grant() convenience methods, you can create AWS Identity and Access Management roles that grant access to one resource by another using minimally scoped permissions. For example, consider a line like the following:
+amzn-s3-demo-bucket.grantRead(myLambda)
+This single line adds a policy to the Lambda function’s role (which is also created for you). That role and its policies are more than a dozen lines of CloudFormation that you don’t have to write. The AWS CDK grants only the minimal permissions required for the function to read from the bucket.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発者にセキュリティチームが作成した定義済みロールを常に使用させると、AWS CDK のコーディングははるかに複雑になります。チームはアプリケーションを設計する際の柔軟性を大幅に失う可能性があります。より良い代替案としては、サービスコントロールポリシーと権限境界を使用して、開発者がガードレール内にとどまるようにすることが挙げられます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS CDKコンストラクトライブラリの grant() という便利なメソッドを使うと、最小限のスコープを持つ権限を使って、あるリソースから別のリソースへのアクセスを許可するAWS Identity and Access Managementロールを作成できます。例えば、次のような行を考えてみましょう。
+amzn-s3-demo-bucket.grantRead(myLambda)
+この 1 行で、Lambda 関数のロール（これも自動的に作成されます）にポリシーが追加されます。このロールとそのポリシーは、10 行を超える CloudFormation のコードで構成されており、ユーザーが記述する必要はありません。AWS CDK は、関数がバケットから読み取りを行うために必要な最小限の権限のみを付与します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">サービスコントロールポリシーと権限境界を使用して、開発者がガードレール内にとどまるようにする
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">人間の介入なしに完全な継続的デプロイを実現するには、高度な自動化が必要です。
+この自動化は、広範なモニタリングによってのみ実現可能です。
+デプロイしたリソースのあらゆる側面を測定するには、メトリクス、アラーム、ダッシュボードを作成しましょう。
+ビジネスメトリクスを記録し、それらの測定値を使用してロールバックなどのデプロイの意思決定を自動化しましょう。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">本番環境用のスタックを作成し、他のステージごとに個別のスタックを作成します。そして、各スタックの設定値をコードに組み込みます。
+ソース管理にチェックインしたくない機密値については、リソースの名前または ARN を使用して、Secrets Manager や Systems Manager パラメータストアなどのサービスを使用します。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ソース管理にチェックインしたくない機密値については、リソースの名前または ARN を使用して、Secrets Manager や Systems Manager パラメータストアなどのサービスを使用します。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">In traditional AWS CloudFormation scenarios, your goal is to produce a single artifact that is parameterized so that it can be deployed to various target environments after applying configuration values specific to those environments. In the CDK, you can, and should, build that configuration into your source code. Create a stack for your production environment, and create a separate stack for each of your other stages. Then, put the configuration values for each stack in the code. Use services like Secrets Manager and Systems Manager Parameter Store for sensitive values that you don’t want to check in to source control, using the names or ARNs of those resources.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">When you synthesize your application, the cloud assembly created in the cdk.out folder contains a separate template for each environment. Your entire build is deterministic. There are no out-of-band changes to your application, and any given commit always yields the exact same AWS CloudFormation template and accompanying assets. This makes unit testing much more reliable.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">従来の AWS CloudFormation シナリオでは、パラメータ化された単一のアーティファクトを作成し、各環境に固有の設定値を適用した後にデプロイできるようにすることが目標でした。CDK では、その設定をソースコードに組み込むことができ、また組み込む必要があります。本番環境用のスタックを作成し、他のステージごとに個別のスタックを作成します。そして、各スタックの設定値をコードに組み込みます。ソース管理にチェックインしたくない機密値については、リソースの名前または ARN を使用して、Secrets Manager や Systems Manager パラメータストアなどのサービスを使用します。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーションを合成すると、cdk.out フォルダに作成されるクラウドアセンブリには、環境ごとに個別のテンプレートが含まれます。ビルド全体が決定論的です。アプリケーションへの帯域外変更はなく、どのコミットでも常にまったく同じ AWS CloudFormation テンプレートと付随するアセットが生成されます。これにより、ユニットテストの信頼性が大幅に向上します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">アプリケーションを合成すると、cdk.out フォルダに作成されるクラウドアセンブリには、環境ごとに個別のテンプレートが含まれます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CDKアプリ
+　ステージ
+　　スタック
+　　　コンストラクト
+　　　　コンストラクト
+　　　　リソース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">コンストラクトのプロパティで、生成したリソースを公開し、
+コンストラクトのコンストラクタで、利用するリソースを渡す。
+</t>
+    <rPh sb="15" eb="17">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1035,6 +2286,28 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1061,7 +2334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1070,12 +2343,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="30">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1138,6 +2442,9 @@
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1151,41 +2458,127 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3400425</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2581275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1" descr="Diagram showing team’s code organization: repository, package, CDK app or construct library.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D8CC0AC-9A27-1C06-C0A5-21FDCD7A19F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9601200" y="24993601"/>
+          <a:ext cx="9115425" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CF3F4AE0-E13D-4558-873B-F5A3349B1045}" name="テーブル1" displayName="テーブル1" ref="A2:I50" totalsRowShown="0" dataDxfId="11">
-  <autoFilter ref="A2:I50" xr:uid="{CF3F4AE0-E13D-4558-873B-F5A3349B1045}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{807E79D0-FC1B-4F71-AC14-6EF32A135D32}" name="テーブル14" displayName="テーブル14" ref="A2:I67" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="A2:I67" xr:uid="{807E79D0-FC1B-4F71-AC14-6EF32A135D32}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{826F3245-A563-4E15-B88D-5815E0B71FBE}" name="No." dataDxfId="19">
-      <calculatedColumnFormula>ROW(テーブル1[#This Row])-ROW(テーブル1[#Headers])</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{BFA8738B-280D-41E3-969C-031769BD2103}" name="No." dataDxfId="8">
+      <calculatedColumnFormula>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{ADC07D1C-A196-4BE1-A819-8E777BD684E5}" name="カテゴリ（英語）" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{D35A66CF-350A-42FC-9669-D3F8DFAE5A26}" name="カテゴリ（日本語）" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{5063EFB6-2458-4CF0-BEA8-B4CF8E6E5BB3}" name="タイトル（英語）" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{63B8A4B3-7E48-4812-B665-CFDC78AF1265}" name="タイトル（日本語）" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{4AB2BC72-5399-4377-B806-B1FE3423CC01}" name="内容（英語）" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{F6E8BD7A-DCFF-462D-ABBB-E7D4905BBD47}" name="内容（日本語）" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{DFF89847-530D-4D43-9145-D61EB423EB23}" name="サマリ" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{2D02C58B-2727-4012-B654-D09550A08BCF}" name="リンク" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{EE10F834-9E51-4B5C-8B3E-23A0C43744A7}" name="カテゴリ（英語）" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{86EAAFA0-37E2-4A23-8EF9-474DD965FDA7}" name="カテゴリ（日本語）" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{D27189A6-9618-482A-8DFD-BBA54DC85648}" name="タイトル（英語）" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{62C4E25F-0C1E-49FF-993B-61BB246062A8}" name="タイトル（日本語）" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{A5B487C2-B517-4043-BAA9-755EEE2ED106}" name="内容（英語）" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{C9A0EBB0-9368-40A4-B38D-15EC99EA2768}" name="内容（日本語）" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{01F5E218-04FC-45FE-83F6-EFB39EDFA60D}" name="サマリ" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{C7FF1743-4814-4551-BC48-92938C5374BD}" name="リンク" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAF94976-4B6E-448F-AFDB-FD2E5982A4EB}" name="テーブル13" displayName="テーブル13" ref="A2:I35" totalsRowShown="0" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CF3F4AE0-E13D-4558-873B-F5A3349B1045}" name="テーブル1" displayName="テーブル1" ref="A2:I50" totalsRowShown="0" dataDxfId="29">
+  <autoFilter ref="A2:I50" xr:uid="{CF3F4AE0-E13D-4558-873B-F5A3349B1045}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{826F3245-A563-4E15-B88D-5815E0B71FBE}" name="No." dataDxfId="28">
+      <calculatedColumnFormula>ROW(テーブル1[#This Row])-ROW(テーブル1[#Headers])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{ADC07D1C-A196-4BE1-A819-8E777BD684E5}" name="カテゴリ（英語）" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{D35A66CF-350A-42FC-9669-D3F8DFAE5A26}" name="カテゴリ（日本語）" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{5063EFB6-2458-4CF0-BEA8-B4CF8E6E5BB3}" name="タイトル（英語）" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{63B8A4B3-7E48-4812-B665-CFDC78AF1265}" name="タイトル（日本語）" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{4AB2BC72-5399-4377-B806-B1FE3423CC01}" name="内容（英語）" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{F6E8BD7A-DCFF-462D-ABBB-E7D4905BBD47}" name="内容（日本語）" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{DFF89847-530D-4D43-9145-D61EB423EB23}" name="サマリ" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{2D02C58B-2727-4012-B654-D09550A08BCF}" name="リンク" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAF94976-4B6E-448F-AFDB-FD2E5982A4EB}" name="テーブル13" displayName="テーブル13" ref="A2:I35" totalsRowShown="0" dataDxfId="19">
   <autoFilter ref="A2:I35" xr:uid="{DAF94976-4B6E-448F-AFDB-FD2E5982A4EB}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{49CC6260-F47D-47E8-BFB5-024C8E7A7BD3}" name="No." dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{49CC6260-F47D-47E8-BFB5-024C8E7A7BD3}" name="No." dataDxfId="18">
       <calculatedColumnFormula>ROW(テーブル13[#This Row])-ROW(テーブル13[#Headers])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1F931C9C-1623-41A9-B248-BF974F9EA9EF}" name="カテゴリ（英語）" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{FC69AC50-02A3-4447-866C-E65E56875E01}" name="カテゴリ（日本語）" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{D3AFA187-2AB5-4775-939D-2FC17BE61DD1}" name="タイトル（英語）" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{523AB0E6-71C7-4C45-907A-8BF761B34F58}" name="タイトル（日本語）" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{9E9CB0FD-F737-423C-8EB3-5C3DC0147F01}" name="内容（英語）" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{9B2EFA21-42A7-482B-BC38-20723641FB10}" name="内容（日本語）" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{7AC2D998-2644-46B3-8185-1620473736F2}" name="サマリ" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{DCA4B6CE-E66C-4620-901B-1474B6213268}" name="リンク" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{1F931C9C-1623-41A9-B248-BF974F9EA9EF}" name="カテゴリ（英語）" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{FC69AC50-02A3-4447-866C-E65E56875E01}" name="カテゴリ（日本語）" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{D3AFA187-2AB5-4775-939D-2FC17BE61DD1}" name="タイトル（英語）" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{523AB0E6-71C7-4C45-907A-8BF761B34F58}" name="タイトル（日本語）" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{9E9CB0FD-F737-423C-8EB3-5C3DC0147F01}" name="内容（英語）" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{9B2EFA21-42A7-482B-BC38-20723641FB10}" name="内容（日本語）" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{7AC2D998-2644-46B3-8185-1620473736F2}" name="サマリ" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{DCA4B6CE-E66C-4620-901B-1474B6213268}" name="リンク" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1454,10 +2847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A31E62-BFC7-43A0-8AE9-0F4E4B810E56}">
-  <dimension ref="B2:B4"/>
+  <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -1476,8 +2869,38 @@
       </c>
     </row>
     <row r="4" spans="2:2" ht="123.4">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="35.25">
+      <c r="B5" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="88.15">
+      <c r="B6" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="105.75">
+      <c r="B7" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="52.9">
+      <c r="B8" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="52.9">
+      <c r="B9" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="88.15">
+      <c r="B10" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -1487,11 +2910,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836BB301-EDD1-4A62-98E8-FC70B4E260CE}">
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView topLeftCell="A63" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -1504,6 +2927,1418 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="264.39999999999998">
+      <c r="A3" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="88.15">
+      <c r="A4" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="264.39999999999998">
+      <c r="A5" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="176.25">
+      <c r="A6" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>4</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="141">
+      <c r="A7" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="88.15">
+      <c r="A8" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>6</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="211.5">
+      <c r="A9" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="123.4">
+      <c r="A10" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>8</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" ht="264.39999999999998">
+      <c r="A11" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>9</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" ht="193.9">
+      <c r="A12" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>10</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" ht="105.75">
+      <c r="A13" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="220.9" customHeight="1">
+      <c r="A14" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>12</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="141">
+      <c r="A15" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>13</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="193.9">
+      <c r="A16" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>14</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="158.65">
+      <c r="A17" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>15</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="176.25">
+      <c r="A18" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>16</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" ht="123.4">
+      <c r="A19" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>17</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" ht="176.25">
+      <c r="A20" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>18</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" ht="158.65">
+      <c r="A21" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>19</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" ht="88.15">
+      <c r="A22" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>20</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" ht="193.9">
+      <c r="A23" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>21</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="158.65">
+      <c r="A24" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>22</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" ht="158.65">
+      <c r="A25" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>23</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" ht="88.15">
+      <c r="A26" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>24</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" ht="193.9">
+      <c r="A27" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>25</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" ht="123.4">
+      <c r="A28" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>26</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" ht="88.15">
+      <c r="A29" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" ht="211.5">
+      <c r="A30" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>28</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" ht="264.39999999999998">
+      <c r="A31" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>29</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" ht="158.65">
+      <c r="A32" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>30</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" ht="105.75">
+      <c r="A33" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>31</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" ht="176.25">
+      <c r="A34" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>32</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" ht="211.5">
+      <c r="A35" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>33</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" ht="246.75">
+      <c r="A36" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>34</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" ht="158.65">
+      <c r="A37" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>35</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" ht="141">
+      <c r="A38" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>36</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" ht="70.5">
+      <c r="A39" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" ht="317.25">
+      <c r="A40" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>38</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" ht="123.4">
+      <c r="A41" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>39</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" ht="158.65">
+      <c r="A42" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>40</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" ht="176.25">
+      <c r="A43" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>41</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" ht="317.25">
+      <c r="A44" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>42</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" ht="176.25">
+      <c r="A45" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>43</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" ht="193.9">
+      <c r="A46" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>44</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" ht="229.15">
+      <c r="A47" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>45</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:9" ht="88.15">
+      <c r="A48" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>46</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="1:9" ht="88.15">
+      <c r="A49" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>47</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9" ht="88.15">
+      <c r="A50" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>48</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="1:9" ht="105.75">
+      <c r="A51" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>49</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" ht="141">
+      <c r="A52" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>50</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" ht="88.15">
+      <c r="A53" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>51</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:9" ht="193.9">
+      <c r="A54" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>52</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="1:9" ht="211.5">
+      <c r="A55" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>53</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="1:9" ht="123.4">
+      <c r="A56" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>54</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="1:9" ht="158.65">
+      <c r="A57" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>55</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="1:9" ht="105.75">
+      <c r="A58" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>56</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="1:9" ht="123.4">
+      <c r="A59" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>57</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="1:9" ht="282">
+      <c r="A60" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>58</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="1:9" ht="176.25">
+      <c r="A61" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>59</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="1:9" ht="299.64999999999998">
+      <c r="A62" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>60</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="1:9" ht="141">
+      <c r="A63" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>61</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="1:9" ht="246.75">
+      <c r="A64" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>62</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="1:9" ht="141">
+      <c r="A65" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>63</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="1:9" ht="246.75">
+      <c r="A66" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>64</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="3">
+        <f>ROW(テーブル14[#This Row])-ROW(テーブル14[#Headers])</f>
+        <v>65</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I50"/>
+  <sheetViews>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <cols>
+    <col min="1" max="1" width="6.8125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="50.5625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
@@ -2611,19 +5446,18 @@
     <hyperlink ref="A1" r:id="rId1" xr:uid="{BFD4862B-E7BC-4783-8108-4EB21B4196A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5630276-4512-4DCF-A27B-C9EDFA325D51}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
@@ -3181,8 +6015,9 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>